--- a/biology/Botanique/Yucca_baccata/Yucca_baccata.xlsx
+++ b/biology/Botanique/Yucca_baccata/Yucca_baccata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yucca banane
 Yucca baccata, plus communément nommé Yucca banane (ou « Yuccactus »), est une espèce d'arbuste de la famille des Yuccas. Il est caractérisé par ses feuilles dures et très pointues qui peuvent blesser.
@@ -512,7 +524,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire du désert de Sonora situé au sud-ouest des États-Unis et au nord du Mexique.
 </t>
@@ -543,18 +557,55 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa taille atteint en général environ 2 mètres[réf. nécessaire].
 			Fleurs.
 			Fruits.
 			Yucca baccata var. brevifolia
-Liste des variétés et sous-espèces
-Selon Catalogue of Life                                   (25 septembre 2018)[3] et World Checklist of Selected Plant Families (WCSP)  (25 septembre 2018)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yucca_baccata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yucca_baccata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (25 septembre 2018) et World Checklist of Selected Plant Families (WCSP)  (25 septembre 2018) :
 variété Yucca baccata var. baccata
 variété Yucca baccata var. brevifolia L.D.Benson &amp; Darrow (1943)
 Variétés et sous-espèces selon Tropicos
-Selon Tropicos                                           (25 septembre 2018)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 septembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Yucca baccata subsp. thornberi (McKelvey) Hochstätter
 sous-espèce Yucca baccata subsp. vespertina (McKelvey) Hochstätter
 variété Yucca baccata var. australis Engelm.
